--- a/freshers.xlsx
+++ b/freshers.xlsx
@@ -73,6 +73,9 @@
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="italic" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="italic" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffff00"/>
+    </style:style>
     <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N100">
       <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="italic" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="italic" style:font-weight-complex="normal"/>
@@ -694,7 +697,7 @@
           <table:table-cell office:value-type="float" office:value="39" calcext:value-type="float">
             <text:p>39</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Tracy</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
@@ -910,8 +913,8 @@
           <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
             <text:p>M</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
-            <text:p>ZM Zambia</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+            <text:p>GH Ghana</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="60"/>
         </table:table-row>
@@ -1222,9 +1225,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2023-02-21T22:52:01.023050919</meta:creation-date>
-    <dc:date>2023-02-26T22:33:41.555717272</dc:date>
-    <meta:editing-duration>PT4H49M2S</meta:editing-duration>
-    <meta:editing-cycles>4</meta:editing-cycles>
+    <dc:date>2023-03-14T21:20:22.425103952</dc:date>
+    <meta:editing-duration>PT5H37M26S</meta:editing-duration>
+    <meta:editing-cycles>7</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="292" meta:object-count="0"/>
   </office:meta>
@@ -1244,8 +1247,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="freshers">
-              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">39</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -1254,7 +1257,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">15</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1263,7 +1266,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">freshers</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1296</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">897</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1300,7 +1303,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">ugH+/0hQX0xhc2VySmV0X1Byb2Zlc3Npb25hbF9QMTEwMl9SYWNpZV9zX01hY0Jvb2tfQWlyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9Qcm9mZXNzaW9uYWxfUAAWAAMA1wAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfUHJvZmVzc2lvbmFsX1AxMTAyX1JhY2llX3NfTWFjQm9va19BaXIKb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhClBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERRMARHVwbGV4TW9kZTo6VW5rbm93bg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">yQH+/0hQX0xhc2VySmV0X1Byb2Zlc3Npb25hbF9QMTEwMl9SYWNpZV9zX01hY0Jvb2tfQWlyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpIUF9MYXNlckpldF9Qcm9mZXNzaW9uYWxfUAAWAAMA5gAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9SFBfTGFzZXJKZXRfUHJvZmVzc2lvbmFsX1AxMTAyX1JhY2llX3NfTWFjQm9va19BaXIKb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhCklucHV0U2xvdDpUcmF5AFBhZ2VTaXplOkE0AAASAENPTVBBVF9EVVBMRVhfTU9ERRMARHVwbGV4TW9kZTo6VW5rbm93bg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -1665,9 +1668,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2023-02-26">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2023-03-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="19:09:03.314149623">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="21:19:08.215266755">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
